--- a/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
+++ b/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
@@ -635,6 +635,22 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 30683-2023.png")</f>
         <v/>
       </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 30683-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 30683-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 30683-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 30683-2023.docx")</f>
+        <v/>
+      </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
@@ -710,6 +726,22 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 32699-2023.png")</f>
         <v/>
       </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 32699-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 32699-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 32699-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx")</f>
+        <v/>
+      </c>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
@@ -779,6 +811,22 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 29992-2023.png")</f>
         <v/>
       </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 29992-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 29992-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 29992-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 29992-2023.docx")</f>
+        <v/>
+      </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
@@ -851,6 +899,22 @@
       </c>
       <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/kartor/A 30834-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/klagomål/A 30834-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/klagomålsmail/A 30834-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/tillsyn/A 30834-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/tillsynsmail/A 30834-2023.docx")</f>
         <v/>
       </c>
     </row>

--- a/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
+++ b/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45121</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>45112</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>45117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45118</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>45119</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>45119</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>45119</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>45119</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>45119</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>45120</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>45120</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>45120</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>45120</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>45120</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>45120</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>45121</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>45121</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>45121</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>45121</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>45124</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>45125</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>45125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>45126</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>45126</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>45126</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>45126</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>45127</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>45127</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45128</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>45130</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>45131</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45131</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>45133</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>45134</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>45134</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>45138</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
+++ b/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45121</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>45112</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>45117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45118</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>45119</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>45119</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>45119</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>45119</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>45119</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>45120</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>45120</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>45120</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>45120</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>45120</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>45120</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>45121</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>45121</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>45121</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>45121</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>45124</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>45125</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>45125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>45126</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>45126</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>45126</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>45126</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>45127</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>45127</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45128</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>45130</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>45131</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45131</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>45133</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>45134</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>45134</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>45138</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
+++ b/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45121</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>45112</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>45117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45118</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>45119</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>45119</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>45119</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>45119</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>45119</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>45120</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>45120</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>45120</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>45120</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>45120</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>45120</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>45121</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>45121</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>45121</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>45121</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>45124</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>45125</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>45125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>45126</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>45126</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>45126</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>45126</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>45127</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>45127</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45128</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>45130</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>45131</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45131</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>45133</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>45134</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>45134</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>45138</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
+++ b/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 30683-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 30683-2023.xlsx"; "A 30683-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 30683-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 30683-2023.png; "A 30683-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 30683-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 30683-2023.docx; "A 30683-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 30683-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 30683-2023.docx; "A 30683-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 30683-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 30683-2023.docx; "A 30683-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 30683-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 30683-2023.docx; "A 30683-2023")</f>
         <v/>
       </c>
     </row>
@@ -719,27 +719,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 32699-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 32699-2023.xlsx"; "A 32699-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 32699-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 32699-2023.png; "A 32699-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 32699-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 32699-2023.docx; "A 32699-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 32699-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 32699-2023.docx; "A 32699-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 32699-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 32699-2023.docx; "A 32699-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx; "A 32699-2023")</f>
         <v/>
       </c>
     </row>
@@ -804,27 +804,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 29992-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 29992-2023.xlsx"; "A 29992-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 29992-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 29992-2023.png; "A 29992-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 29992-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 29992-2023.docx; "A 29992-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 29992-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 29992-2023.docx; "A 29992-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 29992-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 29992-2023.docx; "A 29992-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 29992-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 29992-2023.docx; "A 29992-2023")</f>
         <v/>
       </c>
     </row>
@@ -894,27 +894,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/artfynd/A 30834-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/artfynd/A 30834-2023.xlsx"; "A 30834-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/kartor/A 30834-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/kartor/A 30834-2023.png; "A 30834-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/klagomål/A 30834-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/klagomål/A 30834-2023.docx; "A 30834-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/klagomålsmail/A 30834-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/klagomålsmail/A 30834-2023.docx; "A 30834-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/tillsyn/A 30834-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/tillsyn/A 30834-2023.docx; "A 30834-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/tillsynsmail/A 30834-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/tillsynsmail/A 30834-2023.docx; "A 30834-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
+++ b/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
@@ -632,23 +632,23 @@
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 30683-2023.png; "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 30683-2023.png"; "A 30683-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 30683-2023.docx; "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 30683-2023.docx"; "A 30683-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 30683-2023.docx; "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 30683-2023.docx"; "A 30683-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 30683-2023.docx; "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 30683-2023.docx"; "A 30683-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 30683-2023.docx; "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 30683-2023.docx"; "A 30683-2023")</f>
         <v/>
       </c>
     </row>
@@ -723,23 +723,23 @@
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 32699-2023.png; "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 32699-2023.png"; "A 32699-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 32699-2023.docx; "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 32699-2023.docx"; "A 32699-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 32699-2023.docx; "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 32699-2023.docx"; "A 32699-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 32699-2023.docx; "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 32699-2023.docx"; "A 32699-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx; "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx"; "A 32699-2023")</f>
         <v/>
       </c>
     </row>
@@ -808,23 +808,23 @@
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 29992-2023.png; "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 29992-2023.png"; "A 29992-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 29992-2023.docx; "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 29992-2023.docx"; "A 29992-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 29992-2023.docx; "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 29992-2023.docx"; "A 29992-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 29992-2023.docx; "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 29992-2023.docx"; "A 29992-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 29992-2023.docx; "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 29992-2023.docx"; "A 29992-2023")</f>
         <v/>
       </c>
     </row>
@@ -898,23 +898,23 @@
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/kartor/A 30834-2023.png; "A 30834-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/kartor/A 30834-2023.png"; "A 30834-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/klagomål/A 30834-2023.docx; "A 30834-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/klagomål/A 30834-2023.docx"; "A 30834-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/klagomålsmail/A 30834-2023.docx; "A 30834-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/klagomålsmail/A 30834-2023.docx"; "A 30834-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/tillsyn/A 30834-2023.docx; "A 30834-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/tillsyn/A 30834-2023.docx"; "A 30834-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/tillsynsmail/A 30834-2023.docx; "A 30834-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/tillsynsmail/A 30834-2023.docx"; "A 30834-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
+++ b/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 30683-2023.xlsx"; "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 30683-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 30683-2023.png"; "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 30683-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 30683-2023.docx"; "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 30683-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 30683-2023.docx"; "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 30683-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 30683-2023.docx"; "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 30683-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 30683-2023.docx"; "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 30683-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>
@@ -719,27 +719,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 32699-2023.xlsx"; "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 32699-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 32699-2023.png"; "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 32699-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 32699-2023.docx"; "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 32699-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 32699-2023.docx"; "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 32699-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 32699-2023.docx"; "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 32699-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx"; "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>
@@ -804,27 +804,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 29992-2023.xlsx"; "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 29992-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 29992-2023.png"; "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 29992-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 29992-2023.docx"; "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 29992-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 29992-2023.docx"; "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 29992-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 29992-2023.docx"; "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 29992-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 29992-2023.docx"; "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 29992-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>
@@ -894,27 +894,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/artfynd/A 30834-2023.xlsx"; "A 30834-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/artfynd/A 30834-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/kartor/A 30834-2023.png"; "A 30834-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/kartor/A 30834-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/klagomål/A 30834-2023.docx"; "A 30834-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/klagomål/A 30834-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/klagomålsmail/A 30834-2023.docx"; "A 30834-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/klagomålsmail/A 30834-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/tillsyn/A 30834-2023.docx"; "A 30834-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/tillsyn/A 30834-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/tillsynsmail/A 30834-2023.docx"; "A 30834-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/tillsynsmail/A 30834-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>

--- a/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
+++ b/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 30683-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 30683-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 30683-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 30683-2023.png")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 30683-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 30683-2023.docx")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 30683-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 30683-2023.docx")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 30683-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 30683-2023.docx")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 30683-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 30683-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -719,27 +719,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 32699-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 32699-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 32699-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 32699-2023.png")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 32699-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 32699-2023.docx")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 32699-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 32699-2023.docx")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 32699-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 32699-2023.docx")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -804,27 +804,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 29992-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 29992-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 29992-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 29992-2023.png")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 29992-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 29992-2023.docx")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 29992-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 29992-2023.docx")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 29992-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 29992-2023.docx")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 29992-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 29992-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -894,27 +894,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/artfynd/A 30834-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/artfynd/A 30834-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/kartor/A 30834-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/kartor/A 30834-2023.png")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/klagomål/A 30834-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/klagomål/A 30834-2023.docx")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/klagomålsmail/A 30834-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/klagomålsmail/A 30834-2023.docx")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/tillsyn/A 30834-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/tillsyn/A 30834-2023.docx")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/tillsynsmail/A 30834-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/tillsynsmail/A 30834-2023.docx")</f>
         <v/>
       </c>
     </row>

--- a/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
+++ b/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
@@ -647,9 +647,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 30683-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 30683-2023.docx")</f>
-        <v/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 30683-2023.docx"; "A 30683-2023")</t>
+        </is>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -738,9 +739,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 32699-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx")</f>
-        <v/>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx"; "A 32699-2023")</t>
+        </is>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -823,9 +825,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 29992-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 29992-2023.docx")</f>
-        <v/>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 29992-2023.docx"; "A 29992-2023")</t>
+        </is>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
@@ -913,9 +916,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/tillsyn/A 30834-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/tillsynsmail/A 30834-2023.docx")</f>
-        <v/>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/tillsynsmail/A 30834-2023.docx"; "A 30834-2023")</t>
+        </is>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">

--- a/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
+++ b/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,29 +628,28 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 30683-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 30683-2023.xlsx, "A 30683-2023"")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 30683-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 30683-2023.png", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 30683-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 30683-2023.docx", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 30683-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 30683-2023.docx", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 30683-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 30683-2023.docx", "A 30683-2023")</f>
         <v/>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 30683-2023.docx"; "A 30683-2023")</t>
-        </is>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 30683-2023.docx", "A 30683-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -663,7 +662,7 @@
         <v>45121</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -720,29 +719,28 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 32699-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 32699-2023.xlsx, "A 32699-2023"")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 32699-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 32699-2023.png", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 32699-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 32699-2023.docx", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 32699-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 32699-2023.docx", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 32699-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 32699-2023.docx", "A 32699-2023")</f>
         <v/>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx"; "A 32699-2023")</t>
-        </is>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx", "A 32699-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -755,7 +753,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -806,29 +804,28 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 29992-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 29992-2023.xlsx, "A 29992-2023"")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 29992-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 29992-2023.png", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 29992-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 29992-2023.docx", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 29992-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 29992-2023.docx", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 29992-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 29992-2023.docx", "A 29992-2023")</f>
         <v/>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 29992-2023.docx"; "A 29992-2023")</t>
-        </is>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 29992-2023.docx", "A 29992-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
@@ -841,7 +838,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -897,29 +894,28 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/artfynd/A 30834-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/artfynd/A 30834-2023.xlsx, "A 30834-2023"")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/kartor/A 30834-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/kartor/A 30834-2023.png", "A 30834-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/klagomål/A 30834-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/klagomål/A 30834-2023.docx", "A 30834-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/klagomålsmail/A 30834-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/klagomålsmail/A 30834-2023.docx", "A 30834-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/tillsyn/A 30834-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/tillsyn/A 30834-2023.docx", "A 30834-2023")</f>
         <v/>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/tillsynsmail/A 30834-2023.docx"; "A 30834-2023")</t>
-        </is>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/tillsynsmail/A 30834-2023.docx", "A 30834-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
@@ -932,7 +928,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -989,7 +985,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1046,7 +1042,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1103,7 +1099,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1160,7 +1156,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1217,7 +1213,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1279,7 +1275,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1336,7 +1332,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1398,7 +1394,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1455,7 +1451,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1517,7 +1513,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1579,7 +1575,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1641,7 +1637,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1698,7 +1694,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1760,7 +1756,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1817,7 +1813,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1879,7 +1875,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1936,7 +1932,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1998,7 +1994,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2055,7 +2051,7 @@
         <v>45112</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2112,7 +2108,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2174,7 +2170,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2231,7 +2227,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2293,7 +2289,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2350,7 +2346,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2412,7 +2408,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2469,7 +2465,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2526,7 +2522,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2588,7 +2584,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2650,7 +2646,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2707,7 +2703,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2769,7 +2765,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2831,7 +2827,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2893,7 +2889,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2955,7 +2951,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3017,7 +3013,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3079,7 +3075,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3141,7 +3137,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3203,7 +3199,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3265,7 +3261,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3327,7 +3323,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3389,7 +3385,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3446,7 +3442,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3508,7 +3504,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3565,7 +3561,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3627,7 +3623,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3684,7 +3680,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3741,7 +3737,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3798,7 +3794,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3860,7 +3856,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3917,7 +3913,7 @@
         <v>45117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3974,7 +3970,7 @@
         <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4036,7 +4032,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4098,7 +4094,7 @@
         <v>45118</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4155,7 +4151,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4217,7 +4213,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4274,7 +4270,7 @@
         <v>45119</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4336,7 +4332,7 @@
         <v>45119</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4398,7 +4394,7 @@
         <v>45119</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4455,7 +4451,7 @@
         <v>45119</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4517,7 +4513,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4574,7 +4570,7 @@
         <v>45119</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4631,7 +4627,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4693,7 +4689,7 @@
         <v>45120</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4755,7 +4751,7 @@
         <v>45120</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4812,7 +4808,7 @@
         <v>45120</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4869,7 +4865,7 @@
         <v>45120</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4931,7 +4927,7 @@
         <v>45120</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4993,7 +4989,7 @@
         <v>45120</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5055,7 +5051,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5117,7 +5113,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5174,7 +5170,7 @@
         <v>45121</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5231,7 +5227,7 @@
         <v>45121</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5293,7 +5289,7 @@
         <v>45121</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5350,7 +5346,7 @@
         <v>45121</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5407,7 +5403,7 @@
         <v>45124</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5469,7 +5465,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5526,7 +5522,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5583,7 +5579,7 @@
         <v>45125</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5645,7 +5641,7 @@
         <v>45125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5702,7 +5698,7 @@
         <v>45126</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5764,7 +5760,7 @@
         <v>45126</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5826,7 +5822,7 @@
         <v>45126</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5888,7 +5884,7 @@
         <v>45126</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5950,7 +5946,7 @@
         <v>45127</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6012,7 +6008,7 @@
         <v>45127</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6069,7 +6065,7 @@
         <v>45128</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6131,7 +6127,7 @@
         <v>45130</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6193,7 +6189,7 @@
         <v>45131</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6255,7 +6251,7 @@
         <v>45131</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6317,7 +6313,7 @@
         <v>45133</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6379,7 +6375,7 @@
         <v>45134</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6441,7 +6437,7 @@
         <v>45134</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6503,7 +6499,7 @@
         <v>45138</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
+++ b/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 30683-2023.xlsx, "A 30683-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 30683-2023.xlsx", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="T2">
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 32699-2023.xlsx, "A 32699-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 32699-2023.xlsx", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="T3">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 29992-2023.xlsx, "A 29992-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 29992-2023.xlsx", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="T4">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/artfynd/A 30834-2023.xlsx, "A 30834-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/artfynd/A 30834-2023.xlsx", "A 30834-2023")</f>
         <v/>
       </c>
       <c r="T5">

--- a/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
+++ b/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45121</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>45112</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>45117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45118</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>45119</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>45119</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>45119</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>45119</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>45119</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>45120</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>45120</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>45120</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>45120</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>45120</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>45120</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>45121</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>45121</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>45121</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>45121</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>45124</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>45125</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>45125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>45126</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>45126</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>45126</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>45126</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>45127</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>45127</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45128</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>45130</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>45131</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45131</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>45133</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>45134</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>45134</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>45138</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
+++ b/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45121</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>45112</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>45117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45118</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>45119</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>45119</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>45119</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>45119</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>45119</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>45120</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>45120</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>45120</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>45120</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>45120</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>45120</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>45121</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>45121</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>45121</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>45121</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>45124</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>45125</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>45125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>45126</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>45126</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>45126</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>45126</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>45127</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>45127</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45128</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>45130</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>45131</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45131</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>45133</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>45134</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>45134</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>45138</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
+++ b/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45121</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>45112</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>45117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45118</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>45119</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>45119</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>45119</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>45119</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>45119</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>45120</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>45120</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>45120</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>45120</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>45120</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>45120</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>45121</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>45121</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>45121</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>45121</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>45124</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>45125</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>45125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>45126</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>45126</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>45126</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>45126</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>45127</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>45127</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45128</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>45130</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>45131</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45131</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>45133</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>45134</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>45134</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>45138</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
+++ b/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 30683-2023.xlsx", "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/artfynd/A 30683-2023.xlsx", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 30683-2023.png", "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/kartor/A 30683-2023.png", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 30683-2023.docx", "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomål/A 30683-2023.docx", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 30683-2023.docx", "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomålsmail/A 30683-2023.docx", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 30683-2023.docx", "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsyn/A 30683-2023.docx", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 30683-2023.docx", "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsynsmail/A 30683-2023.docx", "A 30683-2023")</f>
         <v/>
       </c>
     </row>
@@ -662,7 +662,7 @@
         <v>45121</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,27 +719,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 32699-2023.xlsx", "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/artfynd/A 32699-2023.xlsx", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 32699-2023.png", "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/kartor/A 32699-2023.png", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 32699-2023.docx", "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomål/A 32699-2023.docx", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 32699-2023.docx", "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomålsmail/A 32699-2023.docx", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 32699-2023.docx", "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsyn/A 32699-2023.docx", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx", "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsynsmail/A 32699-2023.docx", "A 32699-2023")</f>
         <v/>
       </c>
     </row>
@@ -753,7 +753,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -804,27 +804,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 29992-2023.xlsx", "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/artfynd/A 29992-2023.xlsx", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 29992-2023.png", "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/kartor/A 29992-2023.png", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 29992-2023.docx", "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomål/A 29992-2023.docx", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 29992-2023.docx", "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomålsmail/A 29992-2023.docx", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 29992-2023.docx", "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsyn/A 29992-2023.docx", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 29992-2023.docx", "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsynsmail/A 29992-2023.docx", "A 29992-2023")</f>
         <v/>
       </c>
     </row>
@@ -838,7 +838,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -894,27 +894,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/artfynd/A 30834-2023.xlsx", "A 30834-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2305/artfynd/A 30834-2023.xlsx", "A 30834-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/kartor/A 30834-2023.png", "A 30834-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2305/kartor/A 30834-2023.png", "A 30834-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/klagomål/A 30834-2023.docx", "A 30834-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2305/klagomål/A 30834-2023.docx", "A 30834-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/klagomålsmail/A 30834-2023.docx", "A 30834-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2305/klagomålsmail/A 30834-2023.docx", "A 30834-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/tillsyn/A 30834-2023.docx", "A 30834-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2305/tillsyn/A 30834-2023.docx", "A 30834-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_BRACKE/tillsynsmail/A 30834-2023.docx", "A 30834-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2305/tillsynsmail/A 30834-2023.docx", "A 30834-2023")</f>
         <v/>
       </c>
     </row>
@@ -928,7 +928,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>45112</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>45117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45118</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>45119</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>45119</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>45119</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>45119</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>45119</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>45120</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>45120</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>45120</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>45120</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>45120</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>45120</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>45121</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>45121</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>45121</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>45121</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>45124</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>45125</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>45125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>45126</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>45126</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>45126</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>45126</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>45127</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>45127</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45128</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>45130</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>45131</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45131</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>45133</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>45134</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>45134</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>45138</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
+++ b/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/artfynd/A 30683-2023.xlsx", "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/artfynd/A 30683-2023 artfynd.xlsx", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/kartor/A 30683-2023.png", "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/kartor/A 30683-2023 karta.png", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomål/A 30683-2023.docx", "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomål/A 30683-2023 fsc-klagomål.docx", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomålsmail/A 30683-2023.docx", "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomålsmail/A 30683-2023 fsc-klagomål mail.docx", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsyn/A 30683-2023.docx", "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsyn/A 30683-2023 tillsynsbegäran.docx", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsynsmail/A 30683-2023.docx", "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/ti,llsynsmail/A 30683-2023 tillsynsbegäran mail.docx", "A 30683-2023")</f>
         <v/>
       </c>
     </row>
@@ -662,7 +662,7 @@
         <v>45121</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,27 +719,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/artfynd/A 32699-2023.xlsx", "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/artfynd/A 32699-2023 artfynd.xlsx", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/kartor/A 32699-2023.png", "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/kartor/A 32699-2023 karta.png", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomål/A 32699-2023.docx", "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomål/A 32699-2023 fsc-klagomål.docx", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomålsmail/A 32699-2023.docx", "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomålsmail/A 32699-2023 fsc-klagomål mail.docx", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsyn/A 32699-2023.docx", "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsyn/A 32699-2023 tillsynsbegäran.docx", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsynsmail/A 32699-2023.docx", "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/ti,llsynsmail/A 32699-2023 tillsynsbegäran mail.docx", "A 32699-2023")</f>
         <v/>
       </c>
     </row>
@@ -753,7 +753,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -804,27 +804,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/artfynd/A 29992-2023.xlsx", "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/artfynd/A 29992-2023 artfynd.xlsx", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/kartor/A 29992-2023.png", "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/kartor/A 29992-2023 karta.png", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomål/A 29992-2023.docx", "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomål/A 29992-2023 fsc-klagomål.docx", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomålsmail/A 29992-2023.docx", "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomålsmail/A 29992-2023 fsc-klagomål mail.docx", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsyn/A 29992-2023.docx", "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsyn/A 29992-2023 tillsynsbegäran.docx", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsynsmail/A 29992-2023.docx", "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/ti,llsynsmail/A 29992-2023 tillsynsbegäran mail.docx", "A 29992-2023")</f>
         <v/>
       </c>
     </row>
@@ -838,7 +838,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -894,27 +894,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2305/artfynd/A 30834-2023.xlsx", "A 30834-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2305/artfynd/A 30834-2023 artfynd.xlsx", "A 30834-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2305/kartor/A 30834-2023.png", "A 30834-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2305/kartor/A 30834-2023 karta.png", "A 30834-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2305/klagomål/A 30834-2023.docx", "A 30834-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2305/klagomål/A 30834-2023 fsc-klagomål.docx", "A 30834-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2305/klagomålsmail/A 30834-2023.docx", "A 30834-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2305/klagomålsmail/A 30834-2023 fsc-klagomål mail.docx", "A 30834-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2305/tillsyn/A 30834-2023.docx", "A 30834-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2305/tillsyn/A 30834-2023 tillsynsbegäran.docx", "A 30834-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2305/tillsynsmail/A 30834-2023.docx", "A 30834-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2305/ti,llsynsmail/A 30834-2023 tillsynsbegäran mail.docx", "A 30834-2023")</f>
         <v/>
       </c>
     </row>
@@ -928,7 +928,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>45112</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>45117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45118</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>45119</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>45119</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>45119</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>45119</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>45119</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>45120</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>45120</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>45120</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>45120</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>45120</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>45120</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>45121</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>45121</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>45121</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>45121</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>45124</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>45125</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>45125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>45126</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>45126</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>45126</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>45126</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>45127</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>45127</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45128</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>45130</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>45131</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45131</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>45133</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>45134</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>45134</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>45138</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
+++ b/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
@@ -636,11 +636,11 @@
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomål/A 30683-2023 fsc-klagomål.docx", "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomål/A 30683-2023 FSC-klagomål.docx", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomålsmail/A 30683-2023 fsc-klagomål mail.docx", "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomålsmail/A 30683-2023 FSC-klagomål mail.docx", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="X2">
@@ -648,7 +648,7 @@
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/ti,llsynsmail/A 30683-2023 tillsynsbegäran mail.docx", "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsynsmail/A 30683-2023 tillsynsbegäran mail.docx", "A 30683-2023")</f>
         <v/>
       </c>
     </row>
@@ -727,11 +727,11 @@
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomål/A 32699-2023 fsc-klagomål.docx", "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomål/A 32699-2023 FSC-klagomål.docx", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomålsmail/A 32699-2023 fsc-klagomål mail.docx", "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomålsmail/A 32699-2023 FSC-klagomål mail.docx", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="X3">
@@ -739,7 +739,7 @@
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/ti,llsynsmail/A 32699-2023 tillsynsbegäran mail.docx", "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsynsmail/A 32699-2023 tillsynsbegäran mail.docx", "A 32699-2023")</f>
         <v/>
       </c>
     </row>
@@ -812,11 +812,11 @@
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomål/A 29992-2023 fsc-klagomål.docx", "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomål/A 29992-2023 FSC-klagomål.docx", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomålsmail/A 29992-2023 fsc-klagomål mail.docx", "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomålsmail/A 29992-2023 FSC-klagomål mail.docx", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="X4">
@@ -824,7 +824,7 @@
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/ti,llsynsmail/A 29992-2023 tillsynsbegäran mail.docx", "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsynsmail/A 29992-2023 tillsynsbegäran mail.docx", "A 29992-2023")</f>
         <v/>
       </c>
     </row>
@@ -902,11 +902,11 @@
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2305/klagomål/A 30834-2023 fsc-klagomål.docx", "A 30834-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2305/klagomål/A 30834-2023 FSC-klagomål.docx", "A 30834-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2305/klagomålsmail/A 30834-2023 fsc-klagomål mail.docx", "A 30834-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2305/klagomålsmail/A 30834-2023 FSC-klagomål mail.docx", "A 30834-2023")</f>
         <v/>
       </c>
       <c r="X5">
@@ -914,7 +914,7 @@
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2305/ti,llsynsmail/A 30834-2023 tillsynsbegäran mail.docx", "A 30834-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2305/tillsynsmail/A 30834-2023 tillsynsbegäran mail.docx", "A 30834-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
+++ b/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45121</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>45112</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>45117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45118</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>45119</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>45119</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>45119</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>45119</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>45119</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>45120</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>45120</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>45120</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>45120</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>45120</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>45120</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>45121</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>45121</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>45121</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>45121</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>45124</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>45125</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>45125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>45126</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>45126</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>45126</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>45126</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>45127</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>45127</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45128</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>45130</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>45131</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45131</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>45133</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>45134</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>45134</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>45138</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
+++ b/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45121</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>45112</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>45117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45118</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>45119</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>45119</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>45119</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>45119</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>45119</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>45120</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>45120</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>45120</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>45120</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>45120</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>45120</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>45121</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>45121</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>45121</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>45121</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>45124</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>45125</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>45125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>45126</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>45126</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>45126</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>45126</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>45127</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>45127</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45128</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>45130</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>45131</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45131</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>45133</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>45134</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>45134</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>45138</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
+++ b/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45121</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>45112</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>45117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45118</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>45119</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>45119</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>45119</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>45119</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>45119</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>45120</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>45120</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>45120</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>45120</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>45120</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>45120</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>45121</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>45121</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>45121</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>45121</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>45124</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>45125</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>45125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>45126</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>45126</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>45126</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>45126</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>45127</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>45127</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45128</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>45130</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>45131</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45131</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>45133</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>45134</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>45134</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>45138</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
+++ b/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45121</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>45112</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>45117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45118</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>45119</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>45119</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>45119</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>45119</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>45119</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>45120</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>45120</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>45120</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>45120</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>45120</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>45120</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>45121</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>45121</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>45121</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>45121</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>45124</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>45125</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>45125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>45126</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>45126</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>45126</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>45126</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>45127</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>45127</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45128</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>45130</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>45131</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45131</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>45133</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>45134</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>45134</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>45138</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
+++ b/Logging_JAMTLANDS_LAN/Översikt JÄMTLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45121</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>45112</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>45114</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>45117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>45118</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45118</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>45119</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>45119</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>45119</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>45119</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>45119</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>45120</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>45120</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>45120</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>45120</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>45120</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
         <v>45120</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>45121</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>45121</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>45121</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>45121</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>45121</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>45124</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>45125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>45125</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>45125</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>45125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>45126</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>45126</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>45126</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>45126</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>45127</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>45127</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45128</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>45130</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>45131</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45131</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>45133</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>45134</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>45134</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>45138</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
